--- a/medicine/Enfance/René_Mettler/René_Mettler.xlsx
+++ b/medicine/Enfance/René_Mettler/René_Mettler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Mettler</t>
+          <t>René_Mettler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Mettler, né le 1er août 1942 à Berne (Suisse) est un peintre et illustrateur suisse, spécialisé dans l'illustration et la réalisation de livres pour enfants consacrés à la nature.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Mettler</t>
+          <t>René_Mettler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grand-père héraldiste de René Mettler l'initie au dessin. Il fait ses études à l'École des arts appliqués de Bienne et devient graphiste. Installé à Paris en 1966, il travaille comme directeur artistique pour un grand magasin et dans des agences de publicité[1]. Puis il dirige les studios graphiques d'un cabinet de design. En 1971, après un séjour à Londres où il découvre l'illustration anglaise[2], il décide de se consacrer entièrement à l'illustration. À partir de 1985 il collabore avec Gallimard Jeunesse pour qui il illustre puis rédige de nombreux livres documentaires.
-Son livre Le grand livre de l'arbre et de la forêt, édité en 2010, est particulièrement salué. Il reçoit plusieurs prix : prix de « la Petite Salamandre » 2011, prix « Emile Gallé », 2011, remis par la Société centrale d'horticulture de Nancy, prix « La Science se livre », du Conseil général des Hauts-de-Seine, qui récompense les meilleurs ouvrages de vulgarisation scientifique[3]. Le collectif L'École aujourd'hui, élémentaire écrit que « ce somptueux album, par sa taille et son projet, redit l’importance de l’arbre et de la forêt, qui recouvre 26 % des terres émergées. Le pinceau de l’auteur est là pour mieux faire voir et apprécier les mondes complexes que les arbres abritent et protègent [4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand-père héraldiste de René Mettler l'initie au dessin. Il fait ses études à l'École des arts appliqués de Bienne et devient graphiste. Installé à Paris en 1966, il travaille comme directeur artistique pour un grand magasin et dans des agences de publicité. Puis il dirige les studios graphiques d'un cabinet de design. En 1971, après un séjour à Londres où il découvre l'illustration anglaise, il décide de se consacrer entièrement à l'illustration. À partir de 1985 il collabore avec Gallimard Jeunesse pour qui il illustre puis rédige de nombreux livres documentaires.
+Son livre Le grand livre de l'arbre et de la forêt, édité en 2010, est particulièrement salué. Il reçoit plusieurs prix : prix de « la Petite Salamandre » 2011, prix « Emile Gallé », 2011, remis par la Société centrale d'horticulture de Nancy, prix « La Science se livre », du Conseil général des Hauts-de-Seine, qui récompense les meilleurs ouvrages de vulgarisation scientifique. Le collectif L'École aujourd'hui, élémentaire écrit que « ce somptueux album, par sa taille et son projet, redit l’importance de l’arbre et de la forêt, qui recouvre 26 % des terres émergées. Le pinceau de l’auteur est là pour mieux faire voir et apprécier les mondes complexes que les arbres abritent et protègent .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Mettler</t>
+          <t>René_Mettler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Livres
-Tous les ouvrages, sauf précision contraire, sont édités par Gallimard Jeunesse[5]
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les ouvrages, sauf précision contraire, sont édités par Gallimard Jeunesse
 Collections : Mes premières découvertes (pour les 2 à 5 ans) :
 L'oiseau, 2008, 24 p.
 La jungle, 2010, 24 p.
@@ -583,9 +602,44 @@
 Grand, fort et sage, l'éléphant, 1986, 40 p. (co-auteur Pierre Pfeffer) 
 Dans le jardin, des fruits et des légumes (11 ans et plus), 1996, 32 p. (co-auteur Gaud Morel)
 Le cochon et ses cousins,  texte Marie Saint-Dizier, 2005, 34 p. 
-Timbres de France
-Nature de France : oiseaux d’outre mer, 2003, héliogravure. Bloc de timbres comprenant le colibri à tête bleue (0,41 €), le colibri grenat, le toucan ariel (0,46 €) et le terpsiphone de Bourbon de la Réunion, (0,69 €). Les oiseaux sont placés dans un dessin de végétation tropicale, avec l'océan en arrière-plan[6].
-Pervenche de Madagascar, 2000, impression offset[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Mettler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Mettler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications et créations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Timbres de France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nature de France : oiseaux d’outre mer, 2003, héliogravure. Bloc de timbres comprenant le colibri à tête bleue (0,41 €), le colibri grenat, le toucan ariel (0,46 €) et le terpsiphone de Bourbon de la Réunion, (0,69 €). Les oiseaux sont placés dans un dessin de végétation tropicale, avec l'océan en arrière-plan.
+Pervenche de Madagascar, 2000, impression offset.
 </t>
         </is>
       </c>
